--- a/data/ChapelHillExpertSurvey/speaker_party_matching.xlsx
+++ b/data/ChapelHillExpertSurvey/speaker_party_matching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bened\Documents\Git\Emotionality-in-Political-Speech-of-the-EU-Commission\data\ChapelHillExpertSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1EDC8F5-A12C-4CC4-9021-C6528E77DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF6D97-59F6-4FBA-8E33-180958343FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{97CE72D2-D62D-4404-9DF2-07C870C88C33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>speaker_id</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>Independent</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -568,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED92730-E5C8-4663-B104-E2612D548297}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -580,7 +589,7 @@
     <col min="2" max="2" width="18.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +599,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -601,8 +613,11 @@
       <c r="C2">
         <v>703</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -612,8 +627,11 @@
       <c r="C3">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -623,8 +641,11 @@
       <c r="C4">
         <v>501</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -634,8 +655,11 @@
       <c r="C5">
         <v>626</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -645,8 +669,11 @@
       <c r="C6">
         <v>3701</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -656,8 +683,11 @@
       <c r="C7">
         <v>2412</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -667,8 +697,11 @@
       <c r="C8">
         <v>1205</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -678,8 +711,11 @@
       <c r="C9">
         <v>2010</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -689,8 +725,11 @@
       <c r="C10">
         <v>837</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -700,8 +739,11 @@
       <c r="C11">
         <v>1302</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -711,8 +753,11 @@
       <c r="C12">
         <v>1602</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -722,8 +767,11 @@
       <c r="C13">
         <v>2111</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -733,8 +781,11 @@
       <c r="C14">
         <v>4001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -744,8 +795,11 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -755,8 +809,11 @@
       <c r="C16">
         <v>702</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -766,8 +823,11 @@
       <c r="C17">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -777,8 +837,11 @@
       <c r="C18">
         <v>402</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -788,8 +851,11 @@
       <c r="C19">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -799,8 +865,11 @@
       <c r="C20">
         <v>3804</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -810,8 +879,11 @@
       <c r="C21">
         <v>2605</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -821,8 +893,11 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -832,8 +907,11 @@
       <c r="C23">
         <v>2202</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -843,8 +921,11 @@
       <c r="C24">
         <v>2507</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -854,8 +935,11 @@
       <c r="C25">
         <v>3101</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -865,8 +949,11 @@
       <c r="C26">
         <v>1002</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -876,8 +963,11 @@
       <c r="C27">
         <v>1401</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -887,8 +977,11 @@
       <c r="C28">
         <v>2705</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -897,6 +990,9 @@
       </c>
       <c r="C29">
         <v>2302</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
